--- a/www.eia.gov/electricity/monthly/xls/table_1_16_a.xlsx
+++ b/www.eia.gov/electricity/monthly/xls/table_1_16_a.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_10\EPM_2016_10P_Run_at_2016_12_22_094008\Output\XLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\eiaSAScomp\erus_share\EPM\Output\Monthly_Output\EPM_2016_11\EPM_2016_11P_Run_at_2017_01_19_170034\Output\XLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
     <t>Table 1.16.A. Utility Scale Facility Net Generation from Geothermal</t>
   </si>
   <si>
-    <t>by State, by Sector, October 2016 and 2015 (Thousand Megawatthours)</t>
+    <t>by State, by Sector, November 2016 and 2015 (Thousand Megawatthours)</t>
   </si>
   <si>
     <t/>
@@ -67,10 +67,10 @@
 and State</t>
   </si>
   <si>
-    <t>October 2016</t>
-  </si>
-  <si>
-    <t>October 2015</t>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>Percentage
@@ -3102,25 +3102,25 @@
         <v>62</v>
       </c>
       <c r="B52" s="10">
-        <v>381</v>
+        <v>397</v>
       </c>
       <c r="C52" s="10">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="D52" s="11">
-        <v>0.20899999999999999</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E52" s="10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F52" s="10">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G52" s="10">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="H52" s="10">
-        <v>291</v>
+        <v>341</v>
       </c>
       <c r="I52" s="10">
         <v>0</v>
@@ -3222,7 +3222,7 @@
         <v>7</v>
       </c>
       <c r="D55" s="14">
-        <v>0.26</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="E55" s="13">
         <v>0</v>
@@ -3292,13 +3292,13 @@
         <v>67</v>
       </c>
       <c r="B57" s="13">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="C57" s="13">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="D57" s="14">
-        <v>0.21</v>
+        <v>6.3E-2</v>
       </c>
       <c r="E57" s="13">
         <v>0</v>
@@ -3307,10 +3307,10 @@
         <v>0</v>
       </c>
       <c r="G57" s="13">
-        <v>324</v>
+        <v>339</v>
       </c>
       <c r="H57" s="13">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="I57" s="13">
         <v>0</v>
@@ -3368,25 +3368,25 @@
         <v>70</v>
       </c>
       <c r="B59" s="13">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C59" s="13">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D59" s="14">
-        <v>0.189</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="E59" s="13">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F59" s="13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G59" s="13">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H59" s="13">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I59" s="13">
         <v>0</v>
@@ -3444,25 +3444,25 @@
         <v>72</v>
       </c>
       <c r="B61" s="10">
-        <v>1082</v>
+        <v>1084</v>
       </c>
       <c r="C61" s="10">
-        <v>990</v>
+        <v>954</v>
       </c>
       <c r="D61" s="11">
-        <v>9.2999999999999999E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="E61" s="10">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F61" s="10">
         <v>73</v>
       </c>
       <c r="G61" s="10">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="H61" s="10">
-        <v>917</v>
+        <v>881</v>
       </c>
       <c r="I61" s="10">
         <v>0</v>
@@ -3482,25 +3482,25 @@
         <v>73</v>
       </c>
       <c r="B62" s="13">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C62" s="13">
-        <v>974</v>
+        <v>935</v>
       </c>
       <c r="D62" s="14">
-        <v>9.0999999999999998E-2</v>
+        <v>0.13800000000000001</v>
       </c>
       <c r="E62" s="13">
+        <v>70</v>
+      </c>
+      <c r="F62" s="13">
         <v>72</v>
       </c>
-      <c r="F62" s="13">
-        <v>73</v>
-      </c>
       <c r="G62" s="13">
-        <v>991</v>
+        <v>994</v>
       </c>
       <c r="H62" s="13">
-        <v>902</v>
+        <v>863</v>
       </c>
       <c r="I62" s="13">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>74</v>
       </c>
       <c r="B63" s="13">
+        <v>20</v>
+      </c>
+      <c r="C63" s="13">
         <v>19</v>
       </c>
-      <c r="C63" s="13">
-        <v>16</v>
-      </c>
       <c r="D63" s="14">
-        <v>0.19700000000000001</v>
+        <v>6.4000000000000001E-2</v>
       </c>
       <c r="E63" s="13" t="s">
         <v>69</v>
@@ -3535,10 +3535,10 @@
         <v>1</v>
       </c>
       <c r="G63" s="13">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H63" s="13">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I63" s="13">
         <v>0</v>
@@ -3596,13 +3596,13 @@
         <v>76</v>
       </c>
       <c r="B65" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C65" s="10">
         <v>18</v>
       </c>
       <c r="D65" s="11">
-        <v>0.44800000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E65" s="10">
         <v>0</v>
@@ -3611,7 +3611,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="10">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H65" s="10">
         <v>18</v>
@@ -3672,13 +3672,13 @@
         <v>78</v>
       </c>
       <c r="B67" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C67" s="13">
         <v>18</v>
       </c>
       <c r="D67" s="14">
-        <v>0.44800000000000001</v>
+        <v>0.44900000000000001</v>
       </c>
       <c r="E67" s="13">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="13">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H67" s="13">
         <v>18</v>
@@ -3710,25 +3710,25 @@
         <v>79</v>
       </c>
       <c r="B68" s="10">
-        <v>1489</v>
+        <v>1507</v>
       </c>
       <c r="C68" s="10">
-        <v>1323</v>
+        <v>1334</v>
       </c>
       <c r="D68" s="11">
-        <v>0.126</v>
+        <v>0.13</v>
       </c>
       <c r="E68" s="10">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F68" s="10">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G68" s="10">
-        <v>1393</v>
+        <v>1412</v>
       </c>
       <c r="H68" s="10">
-        <v>1226</v>
+        <v>1240</v>
       </c>
       <c r="I68" s="10">
         <v>0</v>
